--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHForCompare.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHForCompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298793F-F5A4-4799-8775-9F4871C482B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701722CC-EB29-4C29-A2E9-59031818CCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -35,25 +35,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
     <t>Đối tác</t>
   </si>
   <si>
-    <t>Doanh số chi quầy</t>
+    <t>BÁO CÁO CHI TIẾT - THEO ĐỐI TÁC - SO SÁNH</t>
   </si>
   <si>
-    <t>Doanh số chi nhà</t>
+    <t>Hồ sơ chi quầy</t>
   </si>
   <si>
-    <t>Tổng doanh số</t>
+    <t>Hồ sơ chi nhà</t>
   </si>
   <si>
-    <t>Doanh số chuyển khoản</t>
+    <t>Hồ sơ chuyển khoản</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="N5:O5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -623,10 +623,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
@@ -639,12 +639,12 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="13"/>
       <c r="M6" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
